--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_8.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,33 +498,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BUCA HEYKEL MEYDANDA FULL EŞYALI D.GAZLI KİRALIK DAİRELER ÖĞRENCİ ÇALIŞAN OLUR</t>
+          <t>1+1 eşyalı Kurucesme kiralık daire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>02-09-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111716-1106</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43073690</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -561,48 +561,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Çevikbir meydanı ve SSK Hastanesine2 Dk Mesafede 2+1 Daire</t>
+          <t>İzmir Buca Mustafa Kemal Mahallesin' de Kiralık 3+1 Daire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>115 m²</t>
+          <t>128 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/0-43232517</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/51456-7215</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -624,111 +624,111 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Full eşyalı d.gazlı kiralık daire</t>
+          <t>Buca Göksu mahalesinde  2+1kiralık daire</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21.000
+          <t>10.000
 TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Çatı Katı</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27-10-2024</t>
+          <t>25-09-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/0-12287237</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/30304-191</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN FULL LÜX EŞYALI 3+1 DAİRE.</t>
+          <t>Buca Kuruçeşme Üniversite Karşısı Kiralık Eşyalı Daire</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Buca Koop. Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>27.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>01-10-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/151729-3</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/2527-13078</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -745,91 +745,96 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN 3+1 140m2 D.GAZ ASANSÖR OTOPARKLI KİRALIK DAİRE</t>
+          <t>PARİSA"DAN SİTE İÇİNDE YÜZME HAVUZLU SPOR SALONLU EŞYALI DOĞALGAZLI İKİ ADET KLİMASI VAR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/130324-806</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/143816-4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUCA YABANCI DİLLER FAKÜLTESİNE 3-4 DK. MESAFEDE KİRALIK 2+1</t>
+          <t>Turyap Buca'dan Atatürk Mh.de Öğrenciye Kiralık 1+0 Daire</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.000
+          <t>12.500
 TL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>13 Yaşında</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -839,12 +844,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/15356-5747</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/15356-5708</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -866,138 +871,138 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NİRVANA'DAN EVKA1 DE EŞYALI KİRALIK DUBLEKS MÜSATKİL EV</t>
+          <t>-AY GAYRİMENKUL'DEN- İNÖNÜ MH. 2+1 UYGUN KİRALIK DAİRE!</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Murathan Mah.</t>
+          <t>İzmir / Buca / İnönü Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>32.500
+          <t>12.450
 TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-murathan-kiralik/mustakil-ev/145175-68</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inonu-kiralik/daire/144455-56</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Soba</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>İ.B.F Yürüme Mesafesi 2+1 Sıfır Eşyalı 80m² Kiralık Daire</t>
+          <t>BARİS MAH 3+1 KİRALİK DAİRE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Barış Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22.000
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11-10-2024</t>
+          <t>23-09-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144696-73</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-baris-kiralik/daire/14003-1477</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ÇAMLIKULE MH. MERKEZİ KONUMDA // 2+1 // D.Gazlı- Kapalı Mutfak - 2 Balkon -  ARAKAT KİRALIK DAİRE</t>
+          <t>BUCA SEYFİ DEMİRSOY HAST. YANI 2+1 AÇIK MUTFAK BALKONLU D.GAZLI KLİMALI GENİŞ KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16.500
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -1008,27 +1013,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/104457-1</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-1066</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1050,7 +1055,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tınaztepe Kampüse yakın Tınaztepe Hastanesi civarı 1+1 80 m2 Dgazlı Lüks Eşyalı Asansörlü Arakat</t>
+          <t>ER YAPI EMLAK OFİSİNDEN T.TEPE KAMPÜS KARŞISI 1+1 EŞYASIZ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1060,7 +1065,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.000
+          <t>11.000
 TL</t>
         </is>
       </c>
@@ -1071,12 +1076,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1086,44 +1091,39 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/3526-3165</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/68864-2457</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VİRAJ EMLAK KİRALIK 2+1 70m D.GAZLI SIFIR DAİRE YÜKSEK GİRİŞLİ ŞİRİNYER</t>
+          <t>SAFİR'den Eşyasız DoğalGazlı Klimalı Kiralık 2+1 Daire</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15.500
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -1134,27 +1134,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/98587-1464</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-318</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1166,17 +1171,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Buca Nikah Sarayı Karşısında 3+1 125m2 İçi Full Yapılı Arakat</t>
+          <t>VİRAJ EMLAK 3+1 150m D.GAZLI ARA KAT GENİŞ ODALI ATATÜRK MAH BUCA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24.000
+          <t>22.500
 TL</t>
         </is>
       </c>
@@ -1187,59 +1192,49 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>155 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/24511-9102</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/98587-1451</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kiralık Daire üniversite tam karşısında</t>
+          <t>ÖĞRENCİYE EŞYALI KİRALIK 3+1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22.500
+          <t>28.000
 TL</t>
         </is>
       </c>
@@ -1250,148 +1245,148 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>138 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>7. Kat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>24-09-2024</t>
+          <t>27-10-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/146551-27</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/144436-41</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Doğalgaz Sobası</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Buca Adatepe Mahallesi Ünüversite Yakını 115m2 2+1 Önü Açık Memur Aileye Kiralık sıfır Daire</t>
+          <t>Şirinyer Laleli Mh. 3+1 150m2 Ebeveyn Banyolu D.Gazlı Daire</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 + 2</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>115 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>27-09-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/85846-1879</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/24511-9079</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YAYLACIK'TA 2+1 DOĞALGAZLI ARA KAT YENİ DAİRE</t>
+          <t>İzmir Buca Çaldıran Mah.//Polisokulu Arkasında EMEKLİ KARIKOCAYA 1+1 Müstakil Kiralık Daire</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Çaldıran Mah.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16.000
+          <t>10.000
 TL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-639</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-caldiran-kiralik/daire/85846-1867</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1403,17 +1398,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SAFİR'den Kampüs Karşısı Eşyalı Balkonlu Kiralık Daire</t>
+          <t>ŞİRİNYER İZBAN DİBİNDE 2+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18.000
+          <t>24.000
 TL</t>
         </is>
       </c>
@@ -1424,32 +1419,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>01-10-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-305</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/145398-47</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1461,33 +1451,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BUCA"NIN MERKEZİ YERİNDE 3+1 130M2 DOĞALGAZLI ASANSÖRLÜ ARAKAT KİRALIK DAİRE</t>
+          <t>GÜNEŞ EMLAKTAN 2+1 80M D.GAZLI ASANSÖR OTOPARK BALKON SIFIR LÜKS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Ufuk Mah.</t>
+          <t>İzmir / Buca / Akıncılar Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23.000
+          <t>21.500
 TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1497,12 +1487,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/133137-562</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/130324-772</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1513,180 +1503,175 @@
       <c r="K18" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Buca  Adatepe Mah. Dokuzçeşmeler Kampüs yakını Manzaralı  Full Eşyalı 1+1 Kiralık Daire</t>
+          <t>REF'DEN DOĞUŞ CAD'DE 145 m2 D.GAZLI BALKONLU KİRALIK 3+1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>45 m²</t>
+          <t>155 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>20-08-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/126264-1772</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-112</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIK MAH MERKEZİ KONUMDA 5+1 EŞYALI DUBLEKS DAİRE</t>
+          <t>BARIŞ MAH ECEVİT PARKİ YANİNDA 3+1 KİRALİK DAİRE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Barış Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>25.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>200 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Zemin</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>03-10-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/120563-1704</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-baris-kiralik/daire/14003-1482</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YENİGÜN MAH. KAYMAKAMLIK YAKINI 130 M2 ARAKAT 3+1 KİRALIK DAİRE</t>
+          <t>SAFİR'den Eşyasız 1+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yenigün Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26.500
+          <t>11.250
 TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/18435-5255</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/109159-313</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1697,91 +1682,81 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KOŞU İZBAN KARŞISINDA 3+1 KİRALİK ARAKAT DAİRE</t>
+          <t>VİRAJ EMLAK ASANSÖRLÜ 1+1 50m ARA KAT EŞYALI DAİRE BUCA KURUÇEŞME</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Akıncılar Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>26-09-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-akincilar-kiralik/daire/14003-1488</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/98587-1444</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Buca Atatürk Mahallesi Klimalı Süper Lüks Eşyalı 1+1 Daire......</t>
+          <t>ER YAPI EMLAK OFİSİNDEN T.TEPE KAMPÜS KARŞISI CADDE ÜZERİ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15.500
+          <t>14.500
 TL</t>
         </is>
       </c>
@@ -1792,27 +1767,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>49 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151862-4</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/68864-2451</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1823,59 +1798,64 @@
       <c r="K23" t="inlineStr">
         <is>
           <t>Klima</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BUCA ÇAMLIKULE MAH.'DE SİTE İÇİNDE 2+1 VE 90 m2 KİRALIK DAİRE</t>
+          <t>BUCA BELEDİYESİ YANINDA SADECE ÖĞRENCİYE KİRALIK 3+1 ARAKAT KISMİ EŞYALI DAİRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/15356-5746</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/111716-961</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1892,12 +1872,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TINAZTEPE KAMPÜS KARŞISI 1+1 EŞYALI DOĞALGAZLI KİRALIK DAİRE</t>
+          <t>Buca Hasanağa Parkına Yürüme Mesafesinde 1+1 Eşyalı Kiralık Daire</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1913,27 +1893,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>04-10-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/145175-67</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/51456-7179</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1944,39 +1924,44 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BUCA HEYKEL MEYDANDA FULL EŞYALI D.GAZLI KİRALIK DAİRELER ÖĞRENCİ ÇALIŞAN OLUR</t>
+          <t>3+1 EŞYALI KİRALIK DAİRE HASANAGA BAHÇESİNE 800 MTRE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12.000
+          <t>30.000
 TL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1986,12 +1971,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>18-09-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111716-1106</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/145398-37</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2013,222 +1998,237 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Çevikbir meydanı ve SSK Hastanesine2 Dk Mesafede 2+1 Daire</t>
+          <t>REF’DEN DOĞUŞ CAD’DE ARAKAT ASANSÖRLÜ DOĞALGAZLI KİRALIK 1+1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>115 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23-08-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/0-43232517</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-88</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Full eşyalı d.gazlı kiralık daire</t>
+          <t>GÜNEŞ'TEN 9 EYLÜL İKTİSAT 5DK EŞYALI 1+1 60M YÜKSEK GİRİŞ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>27-10-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/0-12287237</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/130324-194</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN FULL LÜX EŞYALI 3+1 DAİRE.</t>
+          <t>HASANAĞA PARKİ YANİNDA 2+1 KİRALİK DAİRE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Buca Koop. Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>30 Yaşında</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/151729-3</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/14003-1468</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN 3+1 140m2 D.GAZ ASANSÖR OTOPARKLI KİRALIK DAİRE</t>
+          <t>SAFİR'den Kuruçeşme Mah. 1+1 DoğalGazlı Daire</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>25.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/130324-806</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-315</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2245,17 +2245,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BUCA YABANCI DİLLER FAKÜLTESİNE 3-4 DK. MESAFEDE KİRALIK 2+1</t>
+          <t>GOLDİA YAPI’DAN MERKEZİ KONUM UYGUN FİYAT 2+1 EŞYALI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17.000
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -2266,54 +2266,59 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/15356-5747</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/142618-219</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NİRVANA'DAN EVKA1 DE EŞYALI KİRALIK DUBLEKS MÜSATKİL EV</t>
+          <t>Buca Nikah Sarayı Karşısında 3+1 125m2 İçi Full Yapılı Arakat</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Murathan Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>32.500
+          <t>24.000
 TL</t>
         </is>
       </c>
@@ -2324,27 +2329,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-murathan-kiralik/mustakil-ev/145175-68</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/24511-9102</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2354,60 +2359,60 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>İ.B.F Yürüme Mesafesi 2+1 Sıfır Eşyalı 80m² Kiralık Daire</t>
+          <t>FIRAT MAH. 3+1 ARAKAT ÇİFT BALKONLU 150 M2 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22.000
+          <t>18.750
 TL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>18 Yaşında</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11-10-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144696-73</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/18435-5215</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2429,101 +2434,86 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ÇAMLIKULE MH. MERKEZİ KONUMDA // 2+1 // D.Gazlı- Kapalı Mutfak - 2 Balkon -  ARAKAT KİRALIK DAİRE</t>
+          <t>VİRAJ EMLAK KİRALIK SIFIR LÜX VİLLA 145m KAYNAKLAR MERKEZ BUCA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Kaynaklar Merkez Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16.500
+          <t>37.000
 TL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2. Kat</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>23-09-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/104457-1</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kaynaklar-merkez-kiralik/villa/98587-1439</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Isı Pompası</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tınaztepe Kampüse yakın Tınaztepe Hastanesi civarı 1+1 80 m2 Dgazlı Lüks Eşyalı Asansörlü Arakat</t>
+          <t>DOKUZ EYLÜL ÜNİVERSİTESİ YAKINI KİRALIK EŞYALI...</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>18 Yaşında</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2533,34 +2523,39 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/3526-3165</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/0-43446556</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VİRAJ EMLAK KİRALIK 2+1 70m D.GAZLI SIFIR DAİRE YÜKSEK GİRİŞLİ ŞİRİNYER</t>
+          <t>İ.B.F Yürüme Mesafesi 2+1 Sıfır Eşyalı 80m² Kiralık Daire</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15.500
+          <t>22.000
 TL</t>
         </is>
       </c>
@@ -2571,170 +2566,165 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>11-10-2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/98587-1464</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144696-73</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Buca Nikah Sarayı Karşısında 3+1 125m2 İçi Full Yapılı Arakat</t>
+          <t>ER YAPI EMLAK OFİSİNDEN T.TEPE KAMPÜS KARŞISI EŞYALI BAHÇELİ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>24.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/24511-9102</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/68864-2459</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kiralık Daire üniversite tam karşısında</t>
+          <t>Buca Şirinyer Hürriyet Mah Eşyalı 1+1 55 M2 D.gaz Asansör Otoprk</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22.500
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>138 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>24-09-2024</t>
+          <t>05-10-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/146551-27</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-586</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Buca Adatepe Mahallesi Ünüversite Yakını 115m2 2+1 Önü Açık Memur Aileye Kiralık sıfır Daire</t>
+          <t>KİRALIK 1+1 DOĞALGAZLI BALKONLU GENİŞ BİR DAİRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2744,38 +2734,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1 + 2</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>115 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>Kot 2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>15-09-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/85846-1879</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145608-102</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2785,55 +2775,60 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Yerden Isıtma</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>YAYLACIK'TA 2+1 DOĞALGAZLI ARA KAT YENİ DAİRE</t>
+          <t>2 yıl süre kiralık daire</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16.000
+          <t>24.000
 TL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>31 Yaşında</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>31-08-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-639</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/0-43245329</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2855,48 +2850,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SAFİR'den Kampüs Karşısı Eşyalı Balkonlu Kiralık Daire</t>
+          <t>Buca Adatepe mh. sahibinden kiralik 1+1 esyali daire</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>26-09-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-305</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/0-40406526</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2907,59 +2902,64 @@
       <c r="K41" t="inlineStr">
         <is>
           <t>Klima</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BUCA"NIN MERKEZİ YERİNDE 3+1 130M2 DOĞALGAZLI ASANSÖRLÜ ARAKAT KİRALIK DAİRE</t>
+          <t>Buca Hasanağa Parkına Yürüme Mesafesinde 2+0 Eşyalı Kiralık Daire</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Ufuk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>05-10-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/133137-562</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/51456-7180</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2976,61 +2976,2320 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Buca  Adatepe Mah. Dokuzçeşmeler Kampüs yakını Manzaralı  Full Eşyalı 1+1 Kiralık Daire</t>
+          <t>Şirinyer Adnan Kahveci Cd Üzeri 2+1 Ful Lüx Eşyalı Kiralık Daire</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>28.000
+TL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>115 m²</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>14 Yaşında</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>07-10-2024</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/24511-9096</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ŞİRİNYER İNKLAP MAH 3+1 DOĞALGAZ KOMBİLİ ARAKAT  KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / İnkılap Mah.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21.000
+TL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>23-10-2024</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/130324-801</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Miraç ıns kiralık sıfır daire</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12.999
+TL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>23-10-2024</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/0-43518419</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SAFİR'den Atatürk Mahallesinde Eşyalı Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13.500
+TL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/109159-316</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 1+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Kot 2</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/129980-649</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>YESEVİ YURDU CADDESİNDE SIFIR EŞYALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>29-09-2024</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145398-51</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ARGA'DAN BUCA ÇEVİK BİR YAKINI 3+1 EŞYALI D.GAZLI KİRALIK DAİRE.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yenigün Mah.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>23.000
+TL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>125 m²</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>24-10-2024</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/63598-87</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BUCA YILDIZ'DA ÜNİ YAKINI 1+1 DOĞALGAZLI FULL EŞYALI BOYALI KLİMALI LÜX KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16.000
+TL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/111716-1081</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HASAN AĞA PARKININ YANINDA FULL EŞYALI KİRALIK 2+1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>17.000
-TL</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24.900
+TL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>14-08-2024</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-48</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SAFİR'den Kuruçeşme mahallesinde Kapalı mutfak Eşyalı 1+1 Daire</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>1 + 1</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>45 m²</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-303</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 1+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Stüdyo</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>60 m²</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>14-10-2024</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/129980-623</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Buca İnönü Mh. 2+1 100m2 Arakat D.Gazlı Klasik Daire</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Göksu Mah.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13.000
+TL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>19 Yaşında</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>09-10-2024</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/24511-9099</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HASANAĞA BAHÇESİ ÜNİVERSİTE ARKASI EŞYAŞI GENİŞ BALKONLU KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11 + 18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60 m²</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8 Yaşında</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>28-09-2024</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-45</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GÜNEŞ EMLAKTAN 1+1 40m DGAZLI ASANSÖR G.KAMERALI BİNA LÜKS DAİRE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>40 m²</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>3 Yaşında</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>4. Kat</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>17-10-2024</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/126264-1772</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>15-10-2024</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/130324-776</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>KAMPÜS KARŞISI 2+0 YENİ EŞYALI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2 + 0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>04-10-2024</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/144696-28</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>Eşyalı</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Buca Kuruçeşmede 1+1 Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65 m²</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6 Yaşında</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Kot 2</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>11-10-2024</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/51456-7222</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kampüse yürüme mesafesinde fırsat daire</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>15.500
+TL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>12-09-2024</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43357480</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ARGA'DAN BUCA ÇEVİK BİR'DE ZEMİN KAT 2+1 KİRALIK DAİRE.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yenigün Mah.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13.000
+TL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>24-10-2024</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/63598-131</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Soba</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HASANAĞA 300 MTRE SIFIR ESYALI 1+1 KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>25-09-2024</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145398-36</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Doğalgaz Sobası</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BAŞOĞLU'NDAN KİRALIK TERASLI EŞYALI 2+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>25.000
+TL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75 m²</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6. Kat</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/129980-648</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>İzmir Buca Fırat Mahallesin' de 2+1 Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Fırat Mah.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>125 m²</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>En Üst Kat</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>11-10-2024</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/51456-7211</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Buca Efeler Mh. 2+1 80m2 K.Mutfak Sıfır Yüksek Giriş Daire</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Efeler Mah.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>25.000
+TL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80 m²</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/24511-9098</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SAFİR'den Tınaztepede 1+1 Eşyasız Daire</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4. Kat</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-317</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TINAZTEPE HASTANESİ YANI ÜNİ. KARŞISI FIRSAT 1+1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>11.500
+TL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14-08-2024</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144837-57</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>REF'DEN KAMPÜS KARŞISI EŞYALI KİRALİK 1+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Bahçe Katı</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>29-09-2024</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-142</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NEZİH SİTE İÇİ ''3+1'' OTOPARKLI - ÇOCUK PARKLI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>23.000
+TL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>8. Kat</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>18-09-2024</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-38</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Buca hoca ahmet yesevi yurdunun yakinında eşyalı kiralık daire</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yıldız Mah.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>16.000
+TL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10 Yaşında</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>23-10-2024</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/101303-379</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MARKA'DAN HASANAĞA YAKINI 3+1 D.GAZLI BALKONLU KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>22.000
+TL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>105 m²</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>02-10-2024</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/71024-1021</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SAHİBİNDEN BUCA ÜNİVERSİTE YAKINI ARA KAT DOĞALGAZ SIFIR 1+1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>18.000
+TL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>65 m²</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>02-10-2024</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/0-43315356</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BUCADA KİRALIK EŞYALI HAVUZLU 1+0</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>17.250
+TL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Stüdyo</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25 m²</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>09-09-2024</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/residence/146529-33</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ADATEPE DE KİRALIK EŞYALI DAİRE</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>16.000
+TL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8 Yaşında</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>29-09-2024</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/145398-54</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Buca Çamlıpınar'da 2+1 Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>12.000
+TL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>105 m²</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>20 Yaşında</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>En Üst Kat</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>26-10-2024</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/51456-7202</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Soba</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Kömür-Odun</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MARKA'DAN CADDE ÜZERİNDE 3+1 ARAKAT D.GAZLI KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3 + 1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>21 Yaşında</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>15-09-2024</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1019</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 1+1 DAİRE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>16.000
+TL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>65 m²</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/129980-644</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BUCA-İNÖNÜ DE KİRALIK DUBLEKS 4+1DAİRE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / İnönü Mah.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>30.000
+TL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4 + 1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>180 m²</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sıfır Bina</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>02-09-2024</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-inonu-kiralik/daire/146515-124</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HAS CETINLERDEN KIRALIK 2+1DOGALGAZLI ARAKAT DAIRE</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Göksu Mah.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95 m²</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>11 Yaşında</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>16-08-2024</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/143812-17</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2+1, İZBAN Yakını Kiralık Daire</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / İnkılap Mah.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12.000
+TL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>30 Yaşında</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>En Üst Kat</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>21-10-2024</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/0-42226763</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BUCA GÜNLÜK KİRALIK DAİRE HİJYENİK TEMİZ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Zafer Mah.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>300.000
+TL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4 + 1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90 m²</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3 Yaşında</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Ara Kat</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>17-08-2024</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-zafer-kiralik/daire/138098-26</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BUCA YİĞİTLERDE BAKIMLI . FERAH  2+ 1  KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90 m²</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>19 Yaşında</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>3. Kat</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>05-10-2024</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/24511-9094</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Doğalgaz</t>
         </is>
